--- a/data/trans_orig/PESO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PESO-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Peso medio en kg</t>
+          <t>Peso medio en kg (tasa de respuesta: 98,23%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PESO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PESO-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>78,08</t>
+          <t>77,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>66,15</t>
+          <t>66,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>70,64</t>
+          <t>70,71</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,59; 79,78</t>
+          <t>76,02; 80,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,75; 82,14</t>
+          <t>78,72; 81,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>74,13; 80,14</t>
+          <t>74,27; 79,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>64,86; 67,22</t>
+          <t>64,81; 67,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,7; 72,28</t>
+          <t>69,75; 72,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,5; 69,44</t>
+          <t>64,67; 69,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>69,59; 71,73</t>
+          <t>69,49; 72,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73,32; 75,62</t>
+          <t>73,38; 75,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>69,74; 73,78</t>
+          <t>69,8; 73,88</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>80,41</t>
+          <t>80,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>65,94</t>
+          <t>66,1</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>73,1</t>
+          <t>73,29</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,65; 81,26</t>
+          <t>79,35; 81,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,66; 90,98</t>
+          <t>79,62; 90,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78,16; 80,2</t>
+          <t>78,07; 80,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,24; 66,74</t>
+          <t>65,38; 66,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,67; 73,49</t>
+          <t>66,6; 74,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>63,9; 65,86</t>
+          <t>63,96; 65,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>72,42; 73,7</t>
+          <t>72,63; 73,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,51; 82,42</t>
+          <t>73,67; 83,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,23; 72,82</t>
+          <t>71,17; 72,83</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>78,2</t>
+          <t>78,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>64,4</t>
+          <t>64,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>70,34</t>
+          <t>70,71</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,01; 79,37</t>
+          <t>77,11; 79,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,38; 81,91</t>
+          <t>79,33; 81,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78,12; 80,54</t>
+          <t>78,18; 80,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,44; 65,31</t>
+          <t>63,47; 65,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,27; 67,55</t>
+          <t>65,33; 67,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>61,46; 63,4</t>
+          <t>61,44; 63,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69,49; 71,27</t>
+          <t>69,84; 71,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>72,73; 74,72</t>
+          <t>72,74; 74,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>68,98; 70,96</t>
+          <t>69,02; 70,95</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>79,62</t>
+          <t>79,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,57</t>
+          <t>65,62</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>72,05</t>
+          <t>72,22</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,95; 80,25</t>
+          <t>78,71; 80,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,98; 88,74</t>
+          <t>79,96; 88,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>78,06; 79,65</t>
+          <t>78,16; 79,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,01; 66,12</t>
+          <t>65,06; 66,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,4; 72,67</t>
+          <t>67,49; 72,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,47; 64,89</t>
+          <t>63,55; 65,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,62; 72,52</t>
+          <t>71,77; 72,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,76; 80,1</t>
+          <t>73,74; 81,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,61; 71,83</t>
+          <t>70,56; 71,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PESO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PESO-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>80,45</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>77,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>78,37</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>77,89</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>80,34</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>78,37</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>77,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>71,56</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>66,86</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>66,29</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>66,2</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>71,14</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>66,29</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>66,86</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>74,9</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>71,58</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>71,65</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>70,71</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>74,54</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>71,65</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>71,58</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>78,94; 82,13</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>74,27; 79,95</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>77,21; 80,07</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>76,02; 80,09</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>78,72; 81,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>77,21; 80,07</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>74,27; 79,95</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>70,45; 72,63</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>64,67; 69,61</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>65,27; 67,36</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>64,81; 67,65</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>69,75; 72,36</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>65,27; 67,36</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>64,67; 69,61</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>73,96; 75,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>69,8; 73,88</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>70,82; 72,75</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>69,49; 72,04</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>73,38; 75,57</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>70,82; 72,75</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>69,8; 73,88</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>79,97</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>79,12</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>80,38</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>80,23</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>83,48</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>80,38</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>79,12</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>67,54</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>64,85</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>65,48</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>66,1</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>69,38</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>65,48</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>64,85</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>73,81</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>72,02</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>72,9</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>73,29</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>76,51</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>72,9</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>72,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>79,04; 80,84</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>78,07; 80,18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>79,63; 81,13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>79,35; 81,2</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>79,62; 90,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>79,63; 81,13</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>78,07; 80,18</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>66,88; 68,23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>63,96; 65,97</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>64,75; 66,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>65,38; 66,93</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>66,6; 74,13</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>64,75; 66,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>63,96; 65,97</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>73,22; 74,44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>71,17; 72,83</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>72,32; 73,48</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>72,63; 73,98</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>73,67; 83,06</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>72,32; 73,48</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>71,17; 72,83</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>80,36</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>79,39</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>80,3</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>78,34</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>80,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>80,3</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>79,39</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>66,52</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>62,35</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>62,21</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>64,48</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>66,32</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>62,21</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>62,35</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>73,54</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>69,94</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>70,84</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>70,71</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>73,61</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>70,84</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>69,94</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>79,01; 81,59</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>78,18; 80,66</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>79,22; 81,56</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>77,11; 79,54</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>79,33; 81,94</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>79,22; 81,56</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>78,18; 80,66</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>65,54; 67,63</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61,44; 63,31</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61,46; 62,99</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>63,47; 65,55</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>65,33; 67,44</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>61,46; 62,99</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>61,44; 63,31</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>72,69; 74,54</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>69,02; 70,95</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>70,02; 71,71</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>69,84; 71,65</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>72,74; 74,65</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>70,02; 71,71</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>69,02; 70,95</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>80,13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>78,91</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>80,06</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>79,48</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>82,52</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>80,06</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>78,91</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>68,08</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>64,2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>64,74</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>65,62</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>69,07</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>64,74</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>64,2</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>73,92</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>71,21</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>72,15</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>72,22</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>75,63</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>72,15</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>71,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>79,5; 80,82</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>78,16; 79,73</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>79,52; 80,58</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>78,71; 80,16</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>79,96; 88,32</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>79,52; 80,58</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>78,16; 79,73</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>67,56; 68,6</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>63,55; 65,0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>64,27; 65,24</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>65,06; 66,23</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>67,49; 72,84</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>64,27; 65,24</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>63,55; 65,0</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>73,45; 74,39</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>70,56; 71,85</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>71,71; 72,58</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>71,77; 72,76</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>73,74; 81,03</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>71,71; 72,58</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>70,56; 71,85</t>
         </is>
       </c>
     </row>
